--- a/Drive/Logboeken/LogboekDF.xlsx
+++ b/Drive/Logboeken/LogboekDF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>WEEK</t>
   </si>
@@ -38,7 +38,7 @@
     <t>SATURDAY</t>
   </si>
   <si>
-    <t>46 (10 uur)</t>
+    <t>46    (10 uur)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -57,7 +57,7 @@
     <t xml:space="preserve">2 uur. Extra HTML/CSS. </t>
   </si>
   <si>
-    <t>47 (14 uur)</t>
+    <t>47    (14 uur)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -70,13 +70,13 @@
     <t xml:space="preserve">4 uur. Extra HTML/CSS + Extra Java + Android Studio. </t>
   </si>
   <si>
-    <t>2 uur. Eerste bijeenkomst met begeleider. Bijeenkomst met groepje. User interface.</t>
+    <t>2 uur. Eerste bijeenkomst met begeleider. Groepsbijeenkomst. User interface.</t>
   </si>
   <si>
     <t>4 uur. Android Studio.</t>
   </si>
   <si>
-    <t xml:space="preserve">48 (12 uur)   </t>
+    <t xml:space="preserve">48    (12 uur)   </t>
   </si>
   <si>
     <t>4 uur. Groepsbijeenkomst. Taakverdeling. Android Studio.</t>
@@ -85,7 +85,7 @@
     <t>4 uur. Android Studio. Tutorials.</t>
   </si>
   <si>
-    <t>49 (4 uur)</t>
+    <t>49 (16,5 uur)</t>
   </si>
   <si>
     <t xml:space="preserve">4 uur. Android Studio. Tutorials.
@@ -93,6 +93,34 @@
   </si>
   <si>
     <t>2 uur. Groepsbijeenkomst.</t>
+  </si>
+  <si>
+    <t>3 uur. A Studio + Info.</t>
+  </si>
+  <si>
+    <t>4,5 uur. Hoorcollege. Bijeenkomst begeleider. Groepsbijeekomst</t>
+  </si>
+  <si>
+    <t>2 uur. A Studio + Info.</t>
+  </si>
+  <si>
+    <t>1 uur. SQL.</t>
+  </si>
+  <si>
+    <t>50   (9,5 uur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 uur. A Studio. SQL
+</t>
+  </si>
+  <si>
+    <t>1.5 uur. A Studio + Flyer.</t>
+  </si>
+  <si>
+    <t>4 uur. A Studio. Tutorials + Info.</t>
+  </si>
+  <si>
+    <t>2 uur. Presentaties.</t>
   </si>
 </sst>
 </file>
@@ -380,20 +408,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -436,6 +464,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -498,7 +529,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1372572</xdr:colOff>
+      <xdr:colOff>1410672</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>29194</xdr:rowOff>
     </xdr:to>
@@ -509,8 +540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="-19050" y="-61539"/>
-          <a:ext cx="9348173" cy="943596"/>
+          <a:off x="-19051" y="-61539"/>
+          <a:ext cx="9386274" cy="943596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,10 +848,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1388,10 +1419,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue"/>
-            <a:ea typeface="Helvetica Neue"/>
-            <a:cs typeface="Helvetica Neue"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1804,52 +1835,64 @@
       <c r="C9" t="s" s="16">
         <v>25</v>
       </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
+      <c r="D9" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s" s="16">
+        <v>29</v>
+      </c>
       <c r="H9" s="19"/>
     </row>
     <row r="10" ht="43.35" customHeight="1">
       <c r="A10" s="12"/>
-      <c r="B10" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" ht="43.35" customHeight="1">
-      <c r="A11" s="22">
-        <v>50</v>
+      <c r="A11" t="s" s="15">
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s" s="16">
+        <v>34</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" ht="43.35" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" t="s" s="20">
+      <c r="B12" t="s" s="21">
         <v>15</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" ht="43.35" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="23">
         <v>51</v>
       </c>
       <c r="B13" t="s" s="16">
@@ -1860,20 +1903,20 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
-      <c r="H13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" ht="27.1" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" ht="27.1" customHeight="1">
-      <c r="A15" s="22">
+      <c r="A15" s="23">
         <v>52</v>
       </c>
       <c r="B15" s="16"/>
@@ -1882,20 +1925,20 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" ht="27.1" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" ht="27.1" customHeight="1">
-      <c r="A17" s="22">
+      <c r="A17" s="23">
         <v>1</v>
       </c>
       <c r="B17" s="16"/>
@@ -1904,20 +1947,20 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" ht="27.25" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" ht="27.25" customHeight="1">
-      <c r="A19" s="22">
+      <c r="A19" s="23">
         <v>2</v>
       </c>
       <c r="B19" s="16"/>
@@ -1926,20 +1969,20 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" ht="27.25" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" ht="27.25" customHeight="1">
-      <c r="A21" s="22">
+      <c r="A21" s="23">
         <v>3</v>
       </c>
       <c r="B21" s="16"/>
@@ -1948,20 +1991,20 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" ht="27.25" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" ht="27.25" customHeight="1">
-      <c r="A23" s="22">
+      <c r="A23" s="23">
         <v>4</v>
       </c>
       <c r="B23" s="16"/>
@@ -1970,52 +2013,59 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" ht="27.25" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="39">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>

--- a/Drive/Logboeken/LogboekDF.xlsx
+++ b/Drive/Logboeken/LogboekDF.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>WEEK</t>
   </si>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">2 uur. Extra HTML/CSS. </t>
   </si>
   <si>
-    <t>47    (14 uur)</t>
+    <t>47    (15 uur)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -70,10 +70,10 @@
     <t xml:space="preserve">4 uur. Extra HTML/CSS + Extra Java + Android Studio. </t>
   </si>
   <si>
-    <t>2 uur. Eerste bijeenkomst met begeleider. Groepsbijeenkomst. User interface.</t>
-  </si>
-  <si>
-    <t>4 uur. Android Studio.</t>
+    <t>3 uur. Eerste bijeenkomst met begeleider. Groepsbijeenkomst. User interface.</t>
+  </si>
+  <si>
+    <t>4 uur. A Studio.</t>
   </si>
   <si>
     <t xml:space="preserve">48    (12 uur)   </t>
@@ -85,7 +85,7 @@
     <t>4 uur. Android Studio. Tutorials.</t>
   </si>
   <si>
-    <t>49 (16,5 uur)</t>
+    <t>49 (15 uur)</t>
   </si>
   <si>
     <t xml:space="preserve">4 uur. Android Studio. Tutorials.
@@ -98,29 +98,102 @@
     <t>3 uur. A Studio + Info.</t>
   </si>
   <si>
-    <t>4,5 uur. Hoorcollege. Bijeenkomst begeleider. Groepsbijeekomst</t>
+    <t>3 uur. Bijeenkomst begeleider. Groepsbijeekomst</t>
   </si>
   <si>
     <t>2 uur. A Studio + Info.</t>
   </si>
   <si>
-    <t>1 uur. SQL.</t>
-  </si>
-  <si>
-    <t>50   (9,5 uur)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 uur. A Studio. SQL
+    <t>1 uur. SQL info</t>
+  </si>
+  <si>
+    <t>50   (14 uur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 uur. A Studio. SQL info
 </t>
   </si>
   <si>
-    <t>1.5 uur. A Studio + Flyer.</t>
+    <t>2 uur. A Studio + Flyer.</t>
   </si>
   <si>
     <t>4 uur. A Studio. Tutorials + Info.</t>
   </si>
   <si>
-    <t>2 uur. Presentaties.</t>
+    <t>2 uur. Gastcollege</t>
+  </si>
+  <si>
+    <t>2 uur. A Studio</t>
+  </si>
+  <si>
+    <t>51 (12 uur)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 uur. A Studio.
+</t>
+  </si>
+  <si>
+    <t>4 uur. A Studio + Presentaties.</t>
+  </si>
+  <si>
+    <t>52 (10 uur)</t>
+  </si>
+  <si>
+    <t>2 uur. A Studio + guides</t>
+  </si>
+  <si>
+    <t>53 (10 uur)</t>
+  </si>
+  <si>
+    <t>2 uur. Skype meeting + A Studio + guides</t>
+  </si>
+  <si>
+    <t>1 (11 uur)</t>
+  </si>
+  <si>
+    <t>1,5 uur. A Studio</t>
+  </si>
+  <si>
+    <t>2,5 uur. Bijeenkomst begeleider. Groepsbijeenkomst</t>
+  </si>
+  <si>
+    <t>3 uur. Skype meeting + A Studio</t>
+  </si>
+  <si>
+    <t>2 uur. Kaart update</t>
+  </si>
+  <si>
+    <t>2 (10 uur)</t>
+  </si>
+  <si>
+    <t>1 uur. A Studio code check.</t>
+  </si>
+  <si>
+    <t>4 uur. Gastcollege. Bijeenkomst begeleider. Groepsbijeenkomst.</t>
+  </si>
+  <si>
+    <t>3 (11 uur)</t>
+  </si>
+  <si>
+    <t>2 uur. Skype meeting + A Studio testing.</t>
+  </si>
+  <si>
+    <t>1,5 uur. Flyer update.</t>
+  </si>
+  <si>
+    <t>4,5 uur. Bijeenkomst begeleider. Groepsbijeenkomst. Powerpoint presentatie</t>
+  </si>
+  <si>
+    <t>2 uur. Skype meeting. Powerpoint update.</t>
+  </si>
+  <si>
+    <t>1 uur. Meeting</t>
+  </si>
+  <si>
+    <t>2 uur. Eindpresentaties</t>
+  </si>
+  <si>
+    <t>4 uur. Symposium</t>
   </si>
 </sst>
 </file>
@@ -185,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -359,7 +432,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="13"/>
@@ -380,6 +453,47 @@
         <color indexed="13"/>
       </right>
       <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
@@ -389,7 +503,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -408,7 +522,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -466,28 +580,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -528,8 +648,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1410672</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127972</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>29194</xdr:rowOff>
     </xdr:to>
@@ -541,7 +661,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="-19051" y="-61539"/>
-          <a:ext cx="9386274" cy="943596"/>
+          <a:ext cx="9538674" cy="943596"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,7 +1796,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1847,7 +1967,7 @@
       <c r="G9" t="s" s="16">
         <v>29</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" ht="43.35" customHeight="1">
       <c r="A10" s="12"/>
@@ -1875,185 +1995,311 @@
       <c r="E11" t="s" s="16">
         <v>34</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="20"/>
+      <c r="F11" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" ht="43.35" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" t="s" s="21">
-        <v>15</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" ht="43.35" customHeight="1">
-      <c r="A13" s="23">
-        <v>51</v>
+      <c r="A13" t="s" s="15">
+        <v>36</v>
       </c>
       <c r="B13" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="20"/>
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" t="s" s="19">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" ht="27.1" customHeight="1">
       <c r="A14" s="12"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" ht="27.1" customHeight="1">
-      <c r="A15" s="23">
-        <v>52</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="20"/>
+      <c r="A15" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" ht="27.1" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" ht="27.1" customHeight="1">
-      <c r="A17" s="23">
-        <v>1</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="20"/>
+      <c r="A17" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="G17" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" ht="27.25" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" ht="27.25" customHeight="1">
-      <c r="A19" s="23">
-        <v>2</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="20"/>
+      <c r="A19" t="s" s="15">
+        <v>43</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" t="s" s="16">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" ht="27.25" customHeight="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" ht="27.25" customHeight="1">
-      <c r="A21" s="23">
-        <v>3</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="20"/>
+      <c r="A21" t="s" s="15">
+        <v>48</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s" s="16">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" ht="27.25" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" ht="27.25" customHeight="1">
-      <c r="A23" s="23">
+      <c r="A23" t="s" s="15">
+        <v>51</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s" s="16">
+        <v>54</v>
+      </c>
+      <c r="F23" t="s" s="16">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" ht="27.25" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" ht="27.25" customHeight="1">
+      <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" ht="27.25" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="20"/>
+      <c r="E25" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" t="s" s="19">
+        <v>58</v>
+      </c>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" ht="27.25" customHeight="1">
+      <c r="A26" s="23"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="95">
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="H9:H10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F5:F6"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C17:C18"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A13:A14"/>
@@ -2066,6 +2312,20 @@
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
